--- a/output/stock_weekly_report.xlsx
+++ b/output/stock_weekly_report.xlsx
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>6460.2598</v>
+        <v>6552.5098</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>4496.759</v>
+        <v>4616.834</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>25077.619</v>
+        <v>26752.59</v>
       </c>
     </row>
     <row r="4">
@@ -498,17 +498,17 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>60,521 B USD</t>
+          <t>61,798 B USD</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>64,334 B CNY</t>
+          <t>65,583 B CNY</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>29,723 B HKD</t>
+          <t>32,554 B HKD</t>
         </is>
       </c>
     </row>
@@ -520,17 +520,17 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>2,531,991,994</t>
+          <t>3,530,624,627</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>35,193,894,700</t>
+          <t>31,902,089,900</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>27,445,134,839</t>
+          <t>25,482,835,987</t>
         </is>
       </c>
     </row>
@@ -542,17 +542,17 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>1.53%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>8.32%</t>
+          <t>3.86%</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>-0.39%</t>
+          <t>3.14%</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>15.53%</t>
+          <t>13.36%</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>37.19%</t>
+          <t>15.48%</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>40.99%</t>
+          <t>29.63%</t>
         </is>
       </c>
     </row>
@@ -608,17 +608,17 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>4640.39</t>
+          <t>4715.14</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>4179.57</t>
+          <t>4176.68</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21689.47</t>
+          <t>21732.45</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>2020-08-31 to 2025-08-29</t>
+          <t>2020-10-12 to 2025-10-10</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>2020-08-31 to 2025-08-29</t>
+          <t>2020-10-12 to 2025-10-10</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>2020-08-31 to 2025-08-29</t>
+          <t>2020-10-12 to 2025-10-09</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>11.48%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>15.27%</t>
+          <t>16.70%</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>16.76%</t>
+          <t>16.21%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>23.57%</t>
+          <t>12.93%</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>14.95%</t>
+          <t>12.10%</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>26.89%</t>
+          <t>17.09%</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>19.01%</t>
+          <t>18.83%</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>21.97%</t>
+          <t>16.81%</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>28.27%</t>
+          <t>24.81%</t>
         </is>
       </c>
     </row>
@@ -723,17 +723,17 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>17.38%</t>
+          <t>17.11%</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>18.13%</t>
+          <t>18.12%</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>25.17%</t>
+          <t>25.22%</t>
         </is>
       </c>
     </row>
@@ -750,17 +750,17 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>15.90%</t>
+          <t>7.31%</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>88.66%</t>
+          <t>60.52%</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>-18.01%</t>
+          <t>52.56%</t>
         </is>
       </c>
     </row>
@@ -772,17 +772,17 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>22.45%</t>
+          <t>48.06%</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>34.52%</t>
+          <t>52.10%</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>57.84%</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>15.54%</t>
+          <t>13.37%</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>37.22%</t>
+          <t>15.50%</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>41.03%</t>
+          <t>29.66%</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>13.06%</t>
+          <t>13.16%</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>-1.36%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>1.65%</t>
         </is>
       </c>
     </row>
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.35</t>
         </is>
       </c>
     </row>
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -909,17 +909,17 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
